--- a/scores/면접평가서.xlsx
+++ b/scores/면접평가서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekank\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\side\frontend-interview\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C3AE25-619E-4735-B708-C49A28675330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED92085F-805F-4573-9AAD-B21D355D84B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="585" windowWidth="21600" windowHeight="14625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>종합 의견</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,22 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>변수 관련 코딩 문제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>this 관련 코딩 문제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS 동작 원리 관련 코딩 문제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS 동작 원리 관련 코딩 문제 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>React 사용 이유</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,15 +153,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>React 기본 코딩 질문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS 관련 코딩 질문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장성 관련 코딩 질문</t>
+    <t>라이브 코딩 문제 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브 코딩 문제 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브 코딩 문제 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브 코딩 문제 4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -529,126 +517,123 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -954,8 +939,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -971,13 +956,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="46"/>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="29"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -987,295 +972,295 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="31"/>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45"/>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="31"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="45"/>
+      <c r="C16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="45"/>
+      <c r="C17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="45"/>
+      <c r="C18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="45"/>
+      <c r="C19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="31"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="45"/>
+      <c r="C23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="45"/>
+      <c r="C24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="41" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="45"/>
+      <c r="C25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="45"/>
+      <c r="C26" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="20" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45"/>
+      <c r="C27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="31"/>
+      <c r="C28" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-    </row>
-    <row r="28" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36"/>
@@ -1285,6 +1270,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B28"/>
     <mergeCell ref="B33:F34"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B29:B30"/>
@@ -1301,8 +1288,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/scores/면접평가서.xlsx
+++ b/scores/면접평가서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\side\frontend-interview\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED92085F-805F-4573-9AAD-B21D355D84B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E684C-4A5F-4686-A261-C277D4013A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="585" windowWidth="21600" windowHeight="14625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="555" windowWidth="21600" windowHeight="14625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Agenda" sheetId="1" r:id="rId1"/>
@@ -69,14 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>프로그래밍을 시작 계기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 자신있는 언어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자바스크립트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,18 +121,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>백엔드 경험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>브라우저 저장소 질문</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>타입스크립트 경험, 이유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CORS 경험, 해결 방법</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,6 +150,22 @@
   </si>
   <si>
     <t>라이브 코딩 문제 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 시작 계기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 자신있는 언어 - 이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드 경험 (중요)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입스크립트 경험, 사용 이유</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,6 +572,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,12 +599,6 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,9 +633,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,8 +939,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -957,12 +957,12 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="32"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -972,19 +972,19 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="24" t="s">
         <v>1</v>
       </c>
@@ -996,270 +996,270 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="31"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>14</v>
+      <c r="B9" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="31"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>8</v>
+      <c r="B14" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="12"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="31"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="B29" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="31"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="31"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="6"/>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1270,6 +1270,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="B33:F34"/>
@@ -1286,8 +1288,6 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/scores/면접평가서.xlsx
+++ b/scores/면접평가서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\side\frontend-interview\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E684C-4A5F-4686-A261-C277D4013A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3809A3-A139-4E84-9DAC-20B85B1C393E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="555" windowWidth="21600" windowHeight="14625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="525" windowWidth="24945" windowHeight="14625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Agenda" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>종합 의견</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,22 +77,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>타입 스크립트 사용 경험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>React 사용 이유</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상태 관리 라이브러리 사용 경험 및 장 단점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS를 활용한 리액트 사용 경험 유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Frontend</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,10 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현재 서버팀 사용 기술 경험 유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기술 학습 방법</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -125,14 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CORS 경험, 해결 방법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수 선언 방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Frontend 면접 평가표</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,6 +142,26 @@
   </si>
   <si>
     <t>타입스크립트 경험, 사용 이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS 리액트 사용 경험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 서버팀 사용 기술 경험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 관리 라이브러리 경험 - 장 단점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 선언 방식 질문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드 지원 계기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -547,9 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -939,8 +932,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -957,12 +950,12 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="31"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -972,294 +965,290 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
-        <v>12</v>
+    <row r="9" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
-      <c r="C10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
+      <c r="B11" s="25"/>
+      <c r="C11" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="26"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
-        <v>23</v>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
-        <v>24</v>
+      <c r="B17" s="25"/>
+      <c r="C17" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="12"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
-      <c r="C25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26"/>
-      <c r="C26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26"/>
-      <c r="C27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="27"/>
-      <c r="C28" s="19" t="s">
-        <v>25</v>
+      <c r="B28" s="26"/>
+      <c r="C28" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="27"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="27"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
       <c r="G34" s="6"/>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1270,7 +1259,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B22:B28"/>
@@ -1288,6 +1276,7 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/scores/면접평가서.xlsx
+++ b/scores/면접평가서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\side\frontend-interview\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3809A3-A139-4E84-9DAC-20B85B1C393E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442AEFB8-E9A2-4415-8681-F0D5ECE24096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="525" windowWidth="24945" windowHeight="14625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="375" windowWidth="24945" windowHeight="14625" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Agenda" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>종합 의견</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성능 최적화 고민 유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>평가자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>브라우저 저장소 질문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Frontend 면접 평가표</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,6 +154,10 @@
   </si>
   <si>
     <t>프론트엔드 지원 계기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능 최적화 고민 경험</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -932,8 +928,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -950,10 +946,10 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="2"/>
@@ -966,7 +962,7 @@
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -993,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1002,7 +998,7 @@
     <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1011,7 +1007,7 @@
     <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25"/>
       <c r="C7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1020,18 +1016,18 @@
     <row r="8" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="26"/>
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1039,8 +1035,8 @@
     </row>
     <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
+      <c r="C10" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -1048,8 +1044,8 @@
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
-      <c r="C11" s="22" t="s">
-        <v>24</v>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1057,9 +1053,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
-      <c r="C12" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1075,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -1084,7 +1078,7 @@
     <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25"/>
       <c r="C15" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1093,7 +1087,7 @@
     <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
       <c r="C16" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1102,7 +1096,7 @@
     <row r="17" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1111,7 +1105,7 @@
     <row r="18" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -1151,7 +1145,7 @@
     <row r="23" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -1160,7 +1154,7 @@
     <row r="24" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
       <c r="C24" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1169,7 +1163,7 @@
     <row r="25" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -1178,7 +1172,7 @@
     <row r="26" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -1187,7 +1181,7 @@
     <row r="27" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -1196,7 +1190,7 @@
     <row r="28" spans="2:6" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26"/>
       <c r="C28" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -1204,7 +1198,7 @@
     </row>
     <row r="29" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="35"/>
@@ -1259,6 +1253,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B22:B28"/>
@@ -1275,8 +1271,6 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/scores/면접평가서.xlsx
+++ b/scores/면접평가서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\side\frontend-interview\scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794CAA5A-46F9-462C-84B4-E821627CC62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA4E14-6629-4C95-A802-295ED2012EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Interview Agenda'!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Interview Agenda'!$A$1:$E$14</definedName>
     <definedName name="Type">'[1]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,29 +43,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>포트폴리오 의견</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>면접자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>프로그래밍 가치관 및 인간성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바스크립트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리액트와 타입스크립트</t>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 생각하기에 좋은 프론트엔드 코드는 무엇인가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 자신있는 프로그래밍 언어가 무엇인가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입스크립트 사용 이유는 무엇인가? 사용해 본 경험이 있는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web api를 이해하고 setTimeout 관련 문제를 해결하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS의 Promise를 이해하고 Promise 관련 문제를 해결하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS의 let과 const의 차이를 이해하고 관련 문제를 해결하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS의 this 를 이해하고 있고 관련 문제를 해결하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트의 상태관리 라이브러리를 사용해 보았는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 useState의 주의사항을 이해하고 관련 문제를 해결함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 props의 사용 방법을 이해하고 관련 문제를 해결하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,33 +154,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Century Gothic"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="0"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -158,15 +184,56 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Malgun Gothic Semilight"/>
-      <family val="3"/>
+      <sz val="16"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="HY헤드라인M"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HY헤드라인M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="HY헤드라인M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,18 +242,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -196,14 +269,42 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -211,42 +312,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -255,7 +334,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -263,60 +342,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,62 +366,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,204 +732,208 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" customWidth="1"/>
-    <col min="4" max="6" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="62" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="C2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
+    </row>
+    <row r="10" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25">
+        <f>SUM(D3:D12)</f>
+        <v>100</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B17:F19"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F15"/>
-    <mergeCell ref="B16:F16"/>
+  <mergeCells count="2">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0" header="0.11811023622047245" footer="0"/>
+  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>